--- a/love_babbar_450/FINAL450.xlsx
+++ b/love_babbar_450/FINAL450.xlsx
@@ -2547,11 +2547,11 @@
   </sheetPr>
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A445" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>

--- a/love_babbar_450/FINAL450.xlsx
+++ b/love_babbar_450/FINAL450.xlsx
@@ -2547,8 +2547,8 @@
   </sheetPr>
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A445" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B106" activeCellId="0" sqref="B106"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B259" activeCellId="0" sqref="B259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/love_babbar_450/FINAL450.xlsx
+++ b/love_babbar_450/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="624">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -1273,6 +1273,9 @@
   </si>
   <si>
     <t xml:space="preserve">Maximize the sum of arr[i]*i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sort accending</t>
   </si>
   <si>
     <t xml:space="preserve">Maximum sum of absolute difference of an array</t>
@@ -2547,8 +2550,8 @@
   </sheetPr>
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B259" activeCellId="0" sqref="B259"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5600,8 +5603,11 @@
       <c r="B259" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="C259" s="5" t="s">
-        <v>5</v>
+      <c r="C259" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="0" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5609,7 +5615,7 @@
         <v>340</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C260" s="5" t="s">
         <v>5</v>
@@ -5620,7 +5626,7 @@
         <v>340</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C261" s="5" t="s">
         <v>5</v>
@@ -5631,7 +5637,7 @@
         <v>340</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C262" s="5" t="s">
         <v>5</v>
@@ -5642,7 +5648,7 @@
         <v>340</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C263" s="5" t="s">
         <v>5</v>
@@ -5653,7 +5659,7 @@
         <v>340</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C264" s="5" t="s">
         <v>5</v>
@@ -5664,7 +5670,7 @@
         <v>340</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C265" s="5" t="s">
         <v>5</v>
@@ -5675,7 +5681,7 @@
         <v>340</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C266" s="16" t="s">
         <v>8</v>
@@ -5689,7 +5695,7 @@
         <v>340</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C267" s="5" t="s">
         <v>5</v>
@@ -5700,7 +5706,7 @@
         <v>340</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C268" s="5" t="s">
         <v>5</v>
@@ -5711,7 +5717,7 @@
         <v>340</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C269" s="5" t="s">
         <v>5</v>
@@ -5722,7 +5728,7 @@
         <v>340</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C270" s="5" t="s">
         <v>5</v>
@@ -5733,7 +5739,7 @@
         <v>340</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C271" s="5" t="s">
         <v>5</v>
@@ -5744,7 +5750,7 @@
         <v>340</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C272" s="5" t="s">
         <v>5</v>
@@ -5755,7 +5761,7 @@
         <v>340</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C273" s="5" t="s">
         <v>5</v>
@@ -5766,13 +5772,13 @@
         <v>340</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C274" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5780,7 +5786,7 @@
         <v>340</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C275" s="5" t="s">
         <v>5</v>
@@ -5802,7 +5808,7 @@
         <v>340</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C277" s="5" t="s">
         <v>5</v>
@@ -5818,38 +5824,38 @@
     </row>
     <row r="280" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C280" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D280" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C281" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D281" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C282" s="5" t="s">
         <v>5</v>
@@ -5857,10 +5863,10 @@
     </row>
     <row r="283" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C283" s="5" t="s">
         <v>5</v>
@@ -5868,10 +5874,10 @@
     </row>
     <row r="284" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C284" s="8" t="s">
         <v>8</v>
@@ -5879,10 +5885,10 @@
     </row>
     <row r="285" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C285" s="5" t="s">
         <v>5</v>
@@ -5890,10 +5896,10 @@
     </row>
     <row r="286" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C286" s="8" t="s">
         <v>8</v>
@@ -5901,24 +5907,24 @@
     </row>
     <row r="287" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B287" s="17" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C287" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C288" s="5" t="s">
         <v>5</v>
@@ -5926,10 +5932,10 @@
     </row>
     <row r="289" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C289" s="5" t="s">
         <v>5</v>
@@ -5937,10 +5943,10 @@
     </row>
     <row r="290" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C290" s="5" t="s">
         <v>5</v>
@@ -5948,10 +5954,10 @@
     </row>
     <row r="291" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C291" s="5" t="s">
         <v>5</v>
@@ -5959,10 +5965,10 @@
     </row>
     <row r="292" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C292" s="5" t="s">
         <v>5</v>
@@ -5970,24 +5976,24 @@
     </row>
     <row r="293" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C293" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="0" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C294" s="5" t="s">
         <v>5</v>
@@ -5995,10 +6001,10 @@
     </row>
     <row r="295" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C295" s="5" t="s">
         <v>5</v>
@@ -6006,24 +6012,24 @@
     </row>
     <row r="296" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B296" s="17" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C296" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D296" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C297" s="5" t="s">
         <v>5</v>
@@ -6031,10 +6037,10 @@
     </row>
     <row r="298" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C298" s="5" t="s">
         <v>5</v>
@@ -6050,24 +6056,24 @@
     </row>
     <row r="301" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C301" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D301" s="0" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C302" s="8" t="s">
         <v>8</v>
@@ -6075,10 +6081,10 @@
     </row>
     <row r="303" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C303" s="5" t="s">
         <v>5</v>
@@ -6086,10 +6092,10 @@
     </row>
     <row r="304" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C304" s="5" t="s">
         <v>5</v>
@@ -6097,10 +6103,10 @@
     </row>
     <row r="305" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C305" s="5" t="s">
         <v>5</v>
@@ -6108,10 +6114,10 @@
     </row>
     <row r="306" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C306" s="8" t="s">
         <v>8</v>
@@ -6119,10 +6125,10 @@
     </row>
     <row r="307" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C307" s="8" t="s">
         <v>8</v>
@@ -6130,24 +6136,24 @@
     </row>
     <row r="308" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C308" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="0" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C309" s="8" t="s">
         <v>8</v>
@@ -6155,10 +6161,10 @@
     </row>
     <row r="310" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B310" s="28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C310" s="8" t="s">
         <v>8</v>
@@ -6166,10 +6172,10 @@
     </row>
     <row r="311" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C311" s="5" t="s">
         <v>5</v>
@@ -6177,10 +6183,10 @@
     </row>
     <row r="312" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C312" s="5" t="s">
         <v>5</v>
@@ -6188,10 +6194,10 @@
     </row>
     <row r="313" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C313" s="5" t="s">
         <v>5</v>
@@ -6199,10 +6205,10 @@
     </row>
     <row r="314" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B314" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C314" s="5" t="s">
         <v>5</v>
@@ -6210,10 +6216,10 @@
     </row>
     <row r="315" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B315" s="26" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C315" s="5" t="s">
         <v>5</v>
@@ -6221,10 +6227,10 @@
     </row>
     <row r="316" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C316" s="5" t="s">
         <v>5</v>
@@ -6232,10 +6238,10 @@
     </row>
     <row r="317" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C317" s="5" t="s">
         <v>5</v>
@@ -6243,38 +6249,38 @@
     </row>
     <row r="318" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C318" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B319" s="29" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C319" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D319" s="0" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C320" s="25" t="s">
         <v>8</v>
@@ -6282,10 +6288,10 @@
     </row>
     <row r="321" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C321" s="5" t="s">
         <v>5</v>
@@ -6293,10 +6299,10 @@
     </row>
     <row r="322" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C322" s="5" t="s">
         <v>5</v>
@@ -6304,10 +6310,10 @@
     </row>
     <row r="323" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C323" s="5" t="s">
         <v>5</v>
@@ -6315,10 +6321,10 @@
     </row>
     <row r="324" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C324" s="5" t="s">
         <v>5</v>
@@ -6326,10 +6332,10 @@
     </row>
     <row r="325" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B325" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C325" s="5" t="s">
         <v>5</v>
@@ -6337,10 +6343,10 @@
     </row>
     <row r="326" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C326" s="5" t="s">
         <v>5</v>
@@ -6348,10 +6354,10 @@
     </row>
     <row r="327" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C327" s="5" t="s">
         <v>5</v>
@@ -6359,10 +6365,10 @@
     </row>
     <row r="328" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B328" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C328" s="5" t="s">
         <v>5</v>
@@ -6370,10 +6376,10 @@
     </row>
     <row r="329" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C329" s="5" t="s">
         <v>5</v>
@@ -6381,10 +6387,10 @@
     </row>
     <row r="330" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B330" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C330" s="5" t="s">
         <v>5</v>
@@ -6392,10 +6398,10 @@
     </row>
     <row r="331" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C331" s="5" t="s">
         <v>5</v>
@@ -6403,10 +6409,10 @@
     </row>
     <row r="332" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C332" s="5" t="s">
         <v>5</v>
@@ -6414,24 +6420,24 @@
     </row>
     <row r="333" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B333" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C333" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="0" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C334" s="5" t="s">
         <v>5</v>
@@ -6439,10 +6445,10 @@
     </row>
     <row r="335" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C335" s="5" t="s">
         <v>5</v>
@@ -6450,10 +6456,10 @@
     </row>
     <row r="336" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C336" s="5" t="s">
         <v>5</v>
@@ -6461,10 +6467,10 @@
     </row>
     <row r="337" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C337" s="5" t="s">
         <v>5</v>
@@ -6472,10 +6478,10 @@
     </row>
     <row r="338" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B338" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C338" s="5" t="s">
         <v>5</v>
@@ -6483,10 +6489,10 @@
     </row>
     <row r="339" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B339" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C339" s="5" t="s">
         <v>5</v>
@@ -6494,16 +6500,16 @@
     </row>
     <row r="340" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="6" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C340" s="25" t="s">
         <v>8</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6516,10 +6522,10 @@
     </row>
     <row r="343" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C343" s="5" t="s">
         <v>5</v>
@@ -6527,10 +6533,10 @@
     </row>
     <row r="344" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B344" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C344" s="5" t="s">
         <v>5</v>
@@ -6538,10 +6544,10 @@
     </row>
     <row r="345" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B345" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C345" s="5" t="s">
         <v>5</v>
@@ -6549,10 +6555,10 @@
     </row>
     <row r="346" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C346" s="25" t="s">
         <v>8</v>
@@ -6560,10 +6566,10 @@
     </row>
     <row r="347" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C347" s="25" t="s">
         <v>8</v>
@@ -6571,10 +6577,10 @@
     </row>
     <row r="348" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C348" s="5" t="s">
         <v>5</v>
@@ -6582,10 +6588,10 @@
     </row>
     <row r="349" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B349" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C349" s="5" t="s">
         <v>5</v>
@@ -6593,10 +6599,10 @@
     </row>
     <row r="350" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B350" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C350" s="5" t="s">
         <v>5</v>
@@ -6604,10 +6610,10 @@
     </row>
     <row r="351" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B351" s="26" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C351" s="5" t="s">
         <v>5</v>
@@ -6615,10 +6621,10 @@
     </row>
     <row r="352" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B352" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C352" s="5" t="s">
         <v>5</v>
@@ -6626,10 +6632,10 @@
     </row>
     <row r="353" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B353" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C353" s="5" t="s">
         <v>5</v>
@@ -6637,10 +6643,10 @@
     </row>
     <row r="354" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B354" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C354" s="5" t="s">
         <v>5</v>
@@ -6648,10 +6654,10 @@
     </row>
     <row r="355" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C355" s="5" t="s">
         <v>5</v>
@@ -6659,10 +6665,10 @@
     </row>
     <row r="356" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B356" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C356" s="5" t="s">
         <v>5</v>
@@ -6670,10 +6676,10 @@
     </row>
     <row r="357" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C357" s="5" t="s">
         <v>5</v>
@@ -6681,10 +6687,10 @@
     </row>
     <row r="358" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C358" s="5" t="s">
         <v>5</v>
@@ -6692,10 +6698,10 @@
     </row>
     <row r="359" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C359" s="5" t="s">
         <v>5</v>
@@ -6703,10 +6709,10 @@
     </row>
     <row r="360" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C360" s="5" t="s">
         <v>5</v>
@@ -6722,10 +6728,10 @@
     </row>
     <row r="363" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B363" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C363" s="8" t="s">
         <v>8</v>
@@ -6733,24 +6739,24 @@
     </row>
     <row r="364" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B364" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C364" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D364" s="0" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B365" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C365" s="8" t="s">
         <v>8</v>
@@ -6761,80 +6767,80 @@
     </row>
     <row r="366" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B366" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C366" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D366" s="0" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B367" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C367" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D367" s="0" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B368" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C368" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D368" s="0" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C369" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D369" s="0" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C370" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D370" s="0" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C371" s="25" t="s">
         <v>8</v>
@@ -6842,24 +6848,24 @@
     </row>
     <row r="372" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C372" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D372" s="0" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B373" s="30" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C373" s="5" t="s">
         <v>5</v>
@@ -6867,10 +6873,10 @@
     </row>
     <row r="374" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B374" s="30" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C374" s="8" t="s">
         <v>8</v>
@@ -6878,10 +6884,10 @@
     </row>
     <row r="375" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B375" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C375" s="25" t="s">
         <v>8</v>
@@ -6889,10 +6895,10 @@
     </row>
     <row r="376" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B376" s="30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C376" s="5" t="s">
         <v>5</v>
@@ -6900,10 +6906,10 @@
     </row>
     <row r="377" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B377" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C377" s="25" t="s">
         <v>8</v>
@@ -6911,10 +6917,10 @@
     </row>
     <row r="378" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B378" s="17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C378" s="8" t="s">
         <v>8</v>
@@ -6922,10 +6928,10 @@
     </row>
     <row r="379" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C379" s="5" t="s">
         <v>5</v>
@@ -6933,10 +6939,10 @@
     </row>
     <row r="380" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C380" s="5" t="s">
         <v>5</v>
@@ -6944,24 +6950,24 @@
     </row>
     <row r="381" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B381" s="17" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C381" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D381" s="0" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C382" s="5" t="s">
         <v>5</v>
@@ -6969,10 +6975,10 @@
     </row>
     <row r="383" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C383" s="5" t="s">
         <v>5</v>
@@ -6980,10 +6986,10 @@
     </row>
     <row r="384" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C384" s="5" t="s">
         <v>5</v>
@@ -6991,10 +6997,10 @@
     </row>
     <row r="385" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C385" s="5" t="s">
         <v>5</v>
@@ -7002,10 +7008,10 @@
     </row>
     <row r="386" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B386" s="17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C386" s="5" t="s">
         <v>5</v>
@@ -7013,10 +7019,10 @@
     </row>
     <row r="387" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B387" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C387" s="5" t="s">
         <v>5</v>
@@ -7024,10 +7030,10 @@
     </row>
     <row r="388" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B388" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C388" s="5" t="s">
         <v>5</v>
@@ -7035,10 +7041,10 @@
     </row>
     <row r="389" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B389" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C389" s="5" t="s">
         <v>5</v>
@@ -7046,10 +7052,10 @@
     </row>
     <row r="390" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B390" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C390" s="5" t="s">
         <v>5</v>
@@ -7057,10 +7063,10 @@
     </row>
     <row r="391" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B391" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C391" s="5" t="s">
         <v>5</v>
@@ -7068,10 +7074,10 @@
     </row>
     <row r="392" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B392" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C392" s="5" t="s">
         <v>5</v>
@@ -7079,10 +7085,10 @@
     </row>
     <row r="393" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C393" s="5" t="s">
         <v>5</v>
@@ -7090,10 +7096,10 @@
     </row>
     <row r="394" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C394" s="5" t="s">
         <v>5</v>
@@ -7101,10 +7107,10 @@
     </row>
     <row r="395" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C395" s="5" t="s">
         <v>5</v>
@@ -7112,10 +7118,10 @@
     </row>
     <row r="396" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B396" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C396" s="5" t="s">
         <v>5</v>
@@ -7123,10 +7129,10 @@
     </row>
     <row r="397" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B397" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C397" s="5" t="s">
         <v>5</v>
@@ -7134,10 +7140,10 @@
     </row>
     <row r="398" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B398" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C398" s="5" t="s">
         <v>5</v>
@@ -7145,10 +7151,10 @@
     </row>
     <row r="399" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C399" s="5" t="s">
         <v>5</v>
@@ -7156,10 +7162,10 @@
     </row>
     <row r="400" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B400" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C400" s="5" t="s">
         <v>5</v>
@@ -7167,10 +7173,10 @@
     </row>
     <row r="401" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C401" s="5" t="s">
         <v>5</v>
@@ -7178,10 +7184,10 @@
     </row>
     <row r="402" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C402" s="5" t="s">
         <v>5</v>
@@ -7189,10 +7195,10 @@
     </row>
     <row r="403" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C403" s="5" t="s">
         <v>5</v>
@@ -7200,10 +7206,10 @@
     </row>
     <row r="404" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C404" s="5" t="s">
         <v>5</v>
@@ -7211,10 +7217,10 @@
     </row>
     <row r="405" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C405" s="5" t="s">
         <v>5</v>
@@ -7222,10 +7228,10 @@
     </row>
     <row r="406" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B406" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C406" s="5" t="s">
         <v>5</v>
@@ -7241,10 +7247,10 @@
     </row>
     <row r="409" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B409" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C409" s="5" t="s">
         <v>5</v>
@@ -7252,10 +7258,10 @@
     </row>
     <row r="410" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B410" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C410" s="5" t="s">
         <v>5</v>
@@ -7263,10 +7269,10 @@
     </row>
     <row r="411" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C411" s="5" t="s">
         <v>5</v>
@@ -7274,7 +7280,7 @@
     </row>
     <row r="412" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B412" s="7" t="s">
         <v>154</v>
@@ -7285,10 +7291,10 @@
     </row>
     <row r="413" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C413" s="5" t="s">
         <v>5</v>
@@ -7296,10 +7302,10 @@
     </row>
     <row r="414" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="6" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B414" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C414" s="5" t="s">
         <v>5</v>
@@ -7315,66 +7321,66 @@
     </row>
     <row r="417" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B417" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C417" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D417" s="13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B418" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C418" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D418" s="0" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C419" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D419" s="0" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B420" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C420" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D420" s="0" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C421" s="11" t="s">
         <v>8</v>
@@ -7382,10 +7388,10 @@
     </row>
     <row r="422" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C422" s="31" t="s">
         <v>8</v>
@@ -7393,10 +7399,10 @@
     </row>
     <row r="423" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C423" s="11" t="s">
         <v>8</v>
@@ -7404,38 +7410,38 @@
     </row>
     <row r="424" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B424" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C424" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D424" s="0" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B425" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C425" s="32" t="s">
         <v>8</v>
       </c>
       <c r="D425" s="0" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C426" s="11" t="s">
         <v>8</v>
@@ -7443,10 +7449,10 @@
     </row>
     <row r="427" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B427" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C427" s="5" t="s">
         <v>5</v>
@@ -7454,24 +7460,24 @@
     </row>
     <row r="428" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B428" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C428" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D428" s="0" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B429" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C429" s="11" t="s">
         <v>8</v>
@@ -7479,10 +7485,10 @@
     </row>
     <row r="430" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B430" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C430" s="8" t="s">
         <v>8</v>
@@ -7490,10 +7496,10 @@
     </row>
     <row r="431" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B431" s="7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C431" s="8" t="s">
         <v>124</v>
@@ -7504,24 +7510,24 @@
     </row>
     <row r="432" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B432" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C432" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D432" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B433" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C433" s="11" t="s">
         <v>8</v>
@@ -7529,10 +7535,10 @@
     </row>
     <row r="434" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C434" s="11" t="s">
         <v>8</v>
@@ -7540,10 +7546,10 @@
     </row>
     <row r="435" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C435" s="11" t="s">
         <v>8</v>
@@ -7551,10 +7557,10 @@
     </row>
     <row r="436" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B436" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C436" s="5" t="s">
         <v>5</v>
@@ -7562,10 +7568,10 @@
     </row>
     <row r="437" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B437" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C437" s="5" t="s">
         <v>5</v>
@@ -7573,10 +7579,10 @@
     </row>
     <row r="438" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B438" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C438" s="5" t="s">
         <v>5</v>
@@ -7584,10 +7590,10 @@
     </row>
     <row r="439" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C439" s="5" t="s">
         <v>5</v>
@@ -7595,10 +7601,10 @@
     </row>
     <row r="440" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B440" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C440" s="11" t="s">
         <v>8</v>
@@ -7606,10 +7612,10 @@
     </row>
     <row r="441" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B441" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C441" s="5" t="s">
         <v>5</v>
@@ -7617,10 +7623,10 @@
     </row>
     <row r="442" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B442" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C442" s="5" t="s">
         <v>5</v>
@@ -7628,10 +7634,10 @@
     </row>
     <row r="443" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C443" s="11" t="s">
         <v>8</v>
@@ -7639,10 +7645,10 @@
     </row>
     <row r="444" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C444" s="5" t="s">
         <v>5</v>
@@ -7650,38 +7656,38 @@
     </row>
     <row r="445" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C445" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D445" s="0" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C446" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D446" s="0" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C447" s="5" t="s">
         <v>5</v>
@@ -7689,52 +7695,52 @@
     </row>
     <row r="448" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C448" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D448" s="0" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B449" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C449" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D449" s="0" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B450" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C450" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D450" s="0" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B451" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C451" s="11" t="s">
         <v>8</v>
@@ -7745,24 +7751,24 @@
     </row>
     <row r="452" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B452" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C452" s="11" t="s">
         <v>124</v>
       </c>
       <c r="D452" s="0" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C453" s="11" t="s">
         <v>8</v>
@@ -7770,10 +7776,10 @@
     </row>
     <row r="454" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C454" s="11" t="s">
         <v>8</v>
@@ -7781,10 +7787,10 @@
     </row>
     <row r="455" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B455" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C455" s="5" t="s">
         <v>5</v>
@@ -7792,10 +7798,10 @@
     </row>
     <row r="456" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C456" s="5" t="s">
         <v>5</v>
@@ -7803,24 +7809,24 @@
     </row>
     <row r="457" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C457" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D457" s="0" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B458" s="28" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C458" s="11" t="s">
         <v>124</v>
@@ -7828,10 +7834,10 @@
     </row>
     <row r="459" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B459" s="28" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C459" s="11" t="s">
         <v>8</v>
@@ -7839,10 +7845,10 @@
     </row>
     <row r="460" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B460" s="28" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C460" s="11" t="s">
         <v>8</v>
@@ -7850,10 +7856,10 @@
     </row>
     <row r="461" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C461" s="5" t="s">
         <v>5</v>
@@ -7861,10 +7867,10 @@
     </row>
     <row r="462" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B462" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C462" s="5" t="s">
         <v>5</v>
@@ -7872,10 +7878,10 @@
     </row>
     <row r="463" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B463" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C463" s="5" t="s">
         <v>5</v>
@@ -7883,10 +7889,10 @@
     </row>
     <row r="464" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C464" s="5" t="s">
         <v>5</v>
@@ -7894,10 +7900,10 @@
     </row>
     <row r="465" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C465" s="8" t="s">
         <v>8</v>
@@ -7905,10 +7911,10 @@
     </row>
     <row r="466" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C466" s="5" t="s">
         <v>5</v>
@@ -7916,10 +7922,10 @@
     </row>
     <row r="467" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B467" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C467" s="5" t="s">
         <v>5</v>
@@ -7927,10 +7933,10 @@
     </row>
     <row r="468" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C468" s="5" t="s">
         <v>5</v>
@@ -7938,24 +7944,24 @@
     </row>
     <row r="469" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C469" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D469" s="0" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C470" s="5" t="s">
         <v>5</v>
@@ -7963,10 +7969,10 @@
     </row>
     <row r="471" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B471" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C471" s="5" t="s">
         <v>5</v>
@@ -7974,10 +7980,10 @@
     </row>
     <row r="472" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C472" s="5" t="s">
         <v>5</v>
@@ -7985,10 +7991,10 @@
     </row>
     <row r="473" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B473" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C473" s="5" t="s">
         <v>5</v>
@@ -7996,10 +8002,10 @@
     </row>
     <row r="474" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B474" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C474" s="5" t="s">
         <v>5</v>
@@ -8007,10 +8013,10 @@
     </row>
     <row r="475" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B475" s="28" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C475" s="16" t="s">
         <v>8</v>
@@ -8018,10 +8024,10 @@
     </row>
     <row r="476" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C476" s="5" t="s">
         <v>5</v>
@@ -8029,10 +8035,10 @@
     </row>
     <row r="477" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C477" s="5" t="s">
         <v>5</v>
@@ -8040,10 +8046,10 @@
     </row>
     <row r="478" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="6" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C478" s="11" t="s">
         <v>8</v>
@@ -8060,24 +8066,24 @@
     </row>
     <row r="481" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B481" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C481" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D481" s="0" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B482" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C482" s="8" t="s">
         <v>8</v>
@@ -8085,66 +8091,66 @@
     </row>
     <row r="483" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B483" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C483" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D483" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B484" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C484" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D484" s="33" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B485" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C485" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D485" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B486" s="17" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C486" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D486" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B487" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C487" s="8" t="s">
         <v>8</v>
@@ -8155,44 +8161,44 @@
     </row>
     <row r="488" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B488" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C488" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D488" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B489" s="17" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C489" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D489" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B490" s="17" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C490" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D490" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8203,11 +8209,11 @@
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="34"/>
       <c r="B492" s="34" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C492" s="35" t="n">
         <f aca="false">COUNTIF(C6:C490,"Yes")</f>
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/love_babbar_450/FINAL450.xlsx
+++ b/love_babbar_450/FINAL450.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1539" uniqueCount="624">
   <si>
     <t xml:space="preserve">Questions by Love Babbar:</t>
   </si>
@@ -298,6 +298,9 @@
     <t xml:space="preserve">Smallest Subarray with sum greater than a given value</t>
   </si>
   <si>
+    <t xml:space="preserve">aquire and release strategy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Three way partitioning of an array around a given value</t>
   </si>
   <si>
@@ -319,7 +322,7 @@
     <t xml:space="preserve">Median of 2 sorted arrays of equal size</t>
   </si>
   <si>
-    <t xml:space="preserve">merge two arrays using two pointer i=n-1, j=0|| median=(a1[n-1]+a2[0]) /2</t>
+    <t xml:space="preserve">Hashing -&gt; {a,b,c,d,e,f,g,h....z}  increase index of occuring element</t>
   </si>
   <si>
     <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
@@ -439,9 +442,6 @@
   </si>
   <si>
     <t xml:space="preserve">Find Duplicate characters in a string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hashing -&gt; {a,b,c,d,e,f,g,h....z}  increase index of occuring element</t>
   </si>
   <si>
     <t xml:space="preserve">Why strings are immutable in Java?</t>
@@ -2550,8 +2550,8 @@
   </sheetPr>
   <dimension ref="A1:D492"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.25" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3015,8 +3015,11 @@
       <c r="B36" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>5</v>
+      <c r="C36" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3024,13 +3027,13 @@
         <v>6</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3038,13 +3041,13 @@
         <v>6</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3052,13 +3055,13 @@
         <v>6</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,13 +3069,13 @@
         <v>6</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,13 +3083,13 @@
         <v>6</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3094,63 +3097,63 @@
         <v>6</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="18"/>
       <c r="C43" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="18"/>
       <c r="C44" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>5</v>
@@ -3158,24 +3161,24 @@
     </row>
     <row r="48" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C48" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>5</v>
@@ -3183,10 +3186,10 @@
     </row>
     <row r="50" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
@@ -3194,10 +3197,10 @@
     </row>
     <row r="51" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>5</v>
@@ -3205,24 +3208,24 @@
     </row>
     <row r="52" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>5</v>
@@ -3230,10 +3233,10 @@
     </row>
     <row r="54" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>5</v>
@@ -3246,49 +3249,49 @@
     </row>
     <row r="57" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>104</v>
@@ -3302,7 +3305,7 @@
     </row>
     <row r="61" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>106</v>
@@ -3316,7 +3319,7 @@
     </row>
     <row r="62" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>108</v>
@@ -3330,7 +3333,7 @@
     </row>
     <row r="63" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>110</v>
@@ -3344,7 +3347,7 @@
     </row>
     <row r="64" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>112</v>
@@ -3358,7 +3361,7 @@
     </row>
     <row r="65" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>114</v>
@@ -3372,7 +3375,7 @@
     </row>
     <row r="66" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>116</v>
@@ -3386,7 +3389,7 @@
     </row>
     <row r="67" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>118</v>
@@ -3400,7 +3403,7 @@
     </row>
     <row r="68" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>120</v>
@@ -3411,7 +3414,7 @@
     </row>
     <row r="69" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" s="17" t="s">
         <v>121</v>
@@ -3422,7 +3425,7 @@
     </row>
     <row r="70" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" s="7" t="s">
         <v>122</v>
@@ -3433,7 +3436,7 @@
     </row>
     <row r="71" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>123</v>
@@ -3447,7 +3450,7 @@
     </row>
     <row r="72" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>125</v>
@@ -3461,7 +3464,7 @@
     </row>
     <row r="73" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>127</v>
@@ -3472,7 +3475,7 @@
     </row>
     <row r="74" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>128</v>
@@ -3483,7 +3486,7 @@
     </row>
     <row r="75" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>129</v>
@@ -3494,7 +3497,7 @@
     </row>
     <row r="76" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="7" t="s">
         <v>130</v>
@@ -3508,7 +3511,7 @@
     </row>
     <row r="77" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>132</v>
@@ -3519,7 +3522,7 @@
     </row>
     <row r="78" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B78" s="17" t="s">
         <v>133</v>
@@ -3533,7 +3536,7 @@
     </row>
     <row r="79" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>135</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="80" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>136</v>
@@ -3555,7 +3558,7 @@
     </row>
     <row r="81" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>137</v>
@@ -3566,7 +3569,7 @@
     </row>
     <row r="82" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>138</v>
@@ -3580,7 +3583,7 @@
     </row>
     <row r="83" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>140</v>
@@ -3594,7 +3597,7 @@
     </row>
     <row r="84" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>142</v>
@@ -3608,7 +3611,7 @@
     </row>
     <row r="85" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>144</v>
@@ -3622,7 +3625,7 @@
     </row>
     <row r="86" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>146</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="87" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>147</v>
@@ -3647,7 +3650,7 @@
     </row>
     <row r="88" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>149</v>
@@ -3658,7 +3661,7 @@
     </row>
     <row r="89" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B89" s="17" t="s">
         <v>150</v>
@@ -3669,7 +3672,7 @@
     </row>
     <row r="90" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>151</v>
@@ -3680,7 +3683,7 @@
     </row>
     <row r="91" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>152</v>
@@ -3694,7 +3697,7 @@
     </row>
     <row r="92" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>154</v>
@@ -3708,7 +3711,7 @@
     </row>
     <row r="93" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93" s="17" t="s">
         <v>156</v>
@@ -3719,7 +3722,7 @@
     </row>
     <row r="94" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>157</v>
@@ -3730,7 +3733,7 @@
     </row>
     <row r="95" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>158</v>
@@ -3741,7 +3744,7 @@
     </row>
     <row r="96" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>159</v>
@@ -3752,7 +3755,7 @@
     </row>
     <row r="97" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>160</v>
@@ -3763,7 +3766,7 @@
     </row>
     <row r="98" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>161</v>
@@ -3774,7 +3777,7 @@
     </row>
     <row r="99" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="17" t="s">
         <v>162</v>
@@ -3785,7 +3788,7 @@
     </row>
     <row r="100" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B100" s="23" t="s">
         <v>163</v>
@@ -3796,7 +3799,7 @@
     </row>
     <row r="101" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B101" s="24" t="s">
         <v>164</v>
@@ -3807,7 +3810,7 @@
     </row>
     <row r="102" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>165</v>
@@ -3818,7 +3821,7 @@
     </row>
     <row r="103" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B103" s="23" t="s">
         <v>166</v>
@@ -3940,7 +3943,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8213,7 +8216,7 @@
       </c>
       <c r="C492" s="35" t="n">
         <f aca="false">COUNTIF(C6:C490,"Yes")</f>
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
